--- a/TestCases.xlsx
+++ b/TestCases.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="109">
   <si>
     <t>`</t>
   </si>
@@ -348,6 +348,9 @@
   </si>
   <si>
     <t>Slow performance and page loads</t>
+  </si>
+  <si>
+    <t>As responsive as it can be</t>
   </si>
 </sst>
 </file>
@@ -691,10 +694,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D53"/>
+  <dimension ref="A1:D58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -737,6 +740,9 @@
       <c r="A3" t="s">
         <v>49</v>
       </c>
+      <c r="B3" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
@@ -1192,213 +1198,231 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>91</v>
+        <v>44</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>92</v>
+        <v>45</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D38" s="3" t="s">
-        <v>93</v>
-      </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>43</v>
+        <v>92</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B40" s="3">
-        <v>1</v>
+        <v>76</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D40" s="3">
-        <v>259</v>
+      <c r="D40" s="3" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B41" s="3">
-        <v>0</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>46</v>
-      </c>
+      <c r="A41" s="1"/>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B42" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D42" s="3">
-        <v>16</v>
+        <v>259</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>95</v>
+        <v>78</v>
+      </c>
+      <c r="B43" s="3">
+        <v>0</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>96</v>
+      <c r="A44" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B44" s="3">
+        <v>-1</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>97</v>
+        <v>1</v>
+      </c>
+      <c r="D44" s="3">
+        <v>16</v>
       </c>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>100</v>
-      </c>
+      <c r="A45" s="1"/>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="1" t="s">
-        <v>82</v>
+      <c r="A47" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>104</v>
-      </c>
+      <c r="A48" s="2"/>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="1"/>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B53" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D53" s="3" t="s">
+      <c r="B58" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D58" s="3" t="s">
         <v>99</v>
       </c>
     </row>
